--- a/input/FollowingData.xlsx
+++ b/input/FollowingData.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akshayuppal/Desktop/twitter_juul/input/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B85972-99D2-304F-8483-8563A2AD10ED}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>userID</t>
   </si>
@@ -31,63 +36,28 @@
   <si>
     <t>[235268294, 2149508462, 14738561, 24515237, 926753377, 274266733, 21828054, 954132386589048832, 33831502, 460513211, 79293791, 21447363, 16409683, 23375688, 21111883, 268439864, 268414482, 107469693, 848170851778351104, 165395751, 400337987, 837743481657360388, 2495363059, 829769392976195584, 26598667, 163755960, 3113293960, 243808779, 801533816137392129, 622796168, 19608297, 16700555, 197105291, 549431828, 3752246896, 39307829, 358543521, 476907667, 54404911, 4841349914, 601978068, 243742269, 748796949277450240, 153966123, 76966092, 12901712, 17416571, 771172434258952192, 83695808, 279319917, 3952961712, 3078193659, 2389760154, 700925275656232962, 3957435561, 3165941617, 936235920, 90805891, 20815457, 728933250110984192, 88019884, 11522502, 55117855, 32135038, 44193089, 213687893, 42688189, 412441957, 41073372, 17230018, 11277292, 28549816, 64535911, 15534344, 204496162, 1339835893, 88959253, 314299168, 606285306, 228489766, 8370082, 4427269888, 234997991, 35764757, 25525507, 2869193218, 45083495, 64307351, 1852520222, 93929231, 306473316, 19693591, 217177546, 494352198, 59616868, 2472626828, 4910084327, 43810453, 79923701, 720039198607155200]</t>
   </si>
-  <si>
-    <t>[2834044967, 1861637886, 551177934, 338084918, 262359713, 16193578, 575492930, 280582344, 141052723, 50374439, 81789019, 19784831, 15325349, 80655102, 214791922, 240606817, 126614785, 297005441, 55573873, 465723566, 14791162, 25326324, 45627568, 38481292, 63160677, 784680583, 225190303, 348379865, 133880286, 119748851, 44084633, 112497440, 78021221, 18647765, 142715935, 104955744, 211170983, 85772748, 26565946, 110447195, 26565124, 93663331, 506640338, 15933910, 24926416, 19292133, 148291419, 68093955, 392230312, 16096416, 136361303, 19058681, 167133971, 23976386, 35094637, 86279595, 92367751, 283255481, 14049880, 22461427, 20]</t>
-  </si>
-  <si>
-    <t>[984776707, 741755082, 2398157216, 8984292, 1044771, 17393790, 621543, 41602160, 21898041, 28160998, 1769551, 17002395, 17918663, 26077026, 11856422, 783214, 23864985, 15492359, 10876852, 15693493, 39250316, 14592723, 25087685, 436266454, 16561884, 816653, 25928253, 10228272, 14499829, 11518842, 16164520, 25093616, 7144422, 373471064]</t>
-  </si>
-  <si>
-    <t>[14335880, 841111760778231809, 1061475775, 90079704, 3092434725, 35586563, 29508176, 2264799067, 1534576003, 619278612, 2695932165, 17881475, 393788638, 13493302, 26657119, 13393052, 3911719575, 18547885, 2589916914, 90910059, 603394351, 16379794, 122208388, 2440684224, 551321053, 21276075, 47796779, 24126361, 2471739785, 24606439, 810590628727914496, 44988185, 57039392, 27393721, 37074061, 32781284, 14982804, 780860698200911872, 18372242, 844582666599104514, 482994384, 826822657425469440, 20064655, 3377413959, 837097241244479489, 1128950437, 2565727201, 1902856897, 18510860, 1117836660, 28386584, 4951981, 2584139005, 139478204, 778647496759402500, 465046121, 1591400760, 16863340, 187426352, 69004966, 12609292, 239509917, 36686040, 216065430, 467911875, 60495339, 743569320790401024, 362111287, 20457080, 49252706, 2434051392, 858924511, 4267371, 305244401, 344514301, 400706900, 1339835893, 14588309, 21456548, 27793335, 16221325, 1004414522902360067, 16120753, 68592098, 2482876706, 34148787, 1339532683, 18886464, 28247269, 76151587, 386843997, 981863635, 17114520, 243836346, 780498564661252102, 1646385932, 785119218, 78335776, 843193159278649345, 352466833]</t>
-  </si>
-  <si>
-    <t>[266717381, 33519870, 893469928115679232, 18351318, 294204289, 786192630, 164389456, 323803058, 217533183, 597153021, 16364095, 304629470, 2233154425, 70004374, 1311248862, 21111883, 207670007, 939980322451673088, 948811464, 44196397, 88277079, 1010369099791261696, 211224226, 60368707, 234963202, 247380353, 550608876, 113108098, 4638409999, 52913549, 184445216, 2418368978, 81483163, 418964389, 979148042988384257, 3229089299, 90580528, 250418819, 366403793, 225538780, 956785723549532160, 202935576, 19330502, 18104752, 337409526, 263213227, 762452954464919557, 882439495995543552, 387637782, 989439829, 1545093288, 361329018, 149882669, 930135940827353088, 20536833, 224059853, 537673539, 36536190, 787753429338697728, 60025762, 25040560, 1615913222, 2891715516, 2271084384, 894237870, 86754819, 2849176637, 836607835, 63796828, 1277406692, 3806553495, 23818581, 80706281, 95610041, 33232200, 3301948978, 50397179, 4896619875, 418286025, 812015519608012800, 2808860364, 735492653933023232, 94724586, 34436190, 918346674, 793933826460368897, 28955739, 1219304198, 256883252, 194320923, 2701407349, 1641312746, 407290914, 738729818217426944, 720269531826925569, 18742360, 249791824, 241204643, 116343244, 23542200]</t>
-  </si>
-  <si>
-    <t>[351072601, 82486423, 1668100297, 3342298491, 4795409602, 2745432603, 452507479, 2678072634, 1024886315425263617, 35019031, 99411625, 22794920, 1009367257, 3153775116, 2540149606, 3149005475, 2416303164, 18936809, 455910427, 428484753, 287738471, 53268985, 2767174197, 1945195729, 797490968715030528, 621294849, 4924046660, 1929686113, 719347474507382784, 255279508, 1703531550, 236676600, 96088898, 2666676242, 144159921, 299461391, 3992077283, 3514711995, 115975625, 3279177734, 738935744, 283065241, 278333802, 338084918, 28054681, 122707432, 15313495, 1500356246, 2231226234, 439690346, 3168107160, 852355473252679680, 556366535, 284941493, 1598985114, 722939160, 27184090, 626027955, 1724473160, 2402895617, 401246229, 966896839, 201448511, 29590047, 1544291454, 97923112, 21489468, 2904779611, 14673707, 268632596, 71018252, 54440512, 3507260114, 16175682, 849638324, 267729705, 2207371464, 1421713674, 2390356994, 780935062170796032, 404793954, 600606371, 443379046, 166747718, 309957441, 189801036, 1164082910, 40132816, 21444034, 956127876, 239683396, 56867362, 749104684611231744, 345164368, 404821480, 89300894, 746153277780287489, 3113525300, 128316494, 244550609]</t>
-  </si>
-  <si>
-    <t>[548004607, 107738793, 499230700, 39789051, 21248056, 2300173255, 15328942, 17169320, 163559312, 21114159, 141944292, 1855454736, 440211079, 16917481, 54430325, 32581744, 28412942, 961198279, 101775528, 92488375, 102129735, 550106752, 6079292, 25203290, 19684833, 986764272, 145582395, 240606817, 204507667, 22093237, 16147002, 221382131, 122462263, 15381688, 369514419, 180124279, 26494583, 21626734, 174013853, 18952459, 1225559930, 1566825457, 211922692, 298123951, 210520666, 402709870, 1908298777, 368055809, 9161482, 420225543, 69152068, 46102292, 430667279, 18669093, 39900954, 10422602, 11518842, 14372486, 36984691, 14882554, 1344951, 21917172, 385559267, 26295380, 70801597, 248845681, 95713333, 17019661, 74804870, 121817564, 354990034, 180056254, 1132189957, 428333, 13935482, 1191452094, 18134856, 633899914, 17039179, 256113470, 15736190, 873902918, 13864852, 14491138, 43761917, 23664560, 15776837, 16303871, 5392522, 9409552, 9779032, 76493480, 14075928, 19251458, 9313022, 14286496, 14692117, 211891109, 12369372, 220717708]</t>
-  </si>
-  <si>
-    <t>[20465770, 53215116, 195608973, 6517282, 187390154, 86369785, 20386541, 2361276162, 1657108801, 411826104, 210946526, 1716147164, 564202082, 488251231, 18389012, 19160356, 25915690, 578711853, 572371682, 582985945, 374550137, 131898906, 78120912, 588721117, 52551463, 53214212, 549743634, 595587968, 18039194, 134597277, 599012026, 15234167, 50808302, 589409771, 599236439, 602075992, 557101332, 411529471, 23035057, 23664270, 93177427, 45133718, 370276668, 441972494, 606838032, 131385076, 330071820, 113089772, 574871611, 613224799, 197409921, 623252037, 170486797, 620326250, 255887092, 84101711, 521776098, 633481124, 704023416, 309562256, 708474331, 608236651, 622558927, 25382641, 546117344, 148078982, 620387875, 94335753, 23790640, 551903714, 632085016, 451090985, 605915889, 617759790, 626428640, 480761697, 730952167, 706667394, 426426851, 545237954, 469327343, 471778735, 721744628, 278996479, 761916170, 740732672, 707668021, 36289365, 244696438, 562330550, 809030995, 406282657, 545853717, 42551252, 634359628, 819454730, 625777733, 839962950, 460311889, 846230124]</t>
-  </si>
-  <si>
-    <t>[44381332, 81480697, 267856525, 24312293, 2230047990, 12044602, 174144887, 783214, 31444922, 16715398, 169686021, 166205761, 115732677, 42436219, 17490241, 387187240, 5135521, 78384286, 16933422, 297112307, 1081562149, 1265982218, 26799554, 332638587, 1000262514, 20015311, 14882139, 94129050, 19840403, 611823, 78506350, 23000522, 545576005, 102446093, 137815695, 25470277, 33384033, 197526189, 18756538, 17108137, 17266725, 17222678, 206495902, 18038269, 16317027, 15908926, 278778939, 10728492, 269919932, 378765141, 37978674, 21423165, 60971837, 138793961, 44750448, 25887179, 15604691, 16237797, 151189275, 54253833, 63979227, 135932775, 321654372, 7966772, 19564411, 180505807, 302936573, 16120111, 184648622, 18025520, 49469427, 16303106, 311093339, 311085955, 22930056, 16603524, 15387090, 66152058, 267884487, 202724099, 30364057, 208703225, 21857217, 17850441, 18048382, 131253217, 19424326, 19677496, 16505729, 14075928, 206936684, 73979448, 24127513, 14824849, 29291639, 21505805, 2890961, 972651, 184647530, 77888423]</t>
-  </si>
-  <si>
-    <t>[1361722422, 54141775, 763820964404748292, 737684327153143810, 4864720094, 17872737, 61053820, 4820320546, 4450798453, 17911526, 2810299271, 8736882, 7401202, 14518134, 3121179628, 131862734, 60018520, 172442947, 109184306, 1077418874, 1629572437, 811350, 2211141222, 42088363, 2842655435, 870221107, 620941916, 29590529, 2340138072, 3300594994, 71815602, 3013777044, 3178766418, 2918018660, 464353786, 2565589034, 156735736, 2687241367, 293253083, 2426422297, 2485476996, 40087562, 2956830548, 1566463268, 14521411, 2997324590, 15196827, 1742581, 385624984, 385611602, 46057700, 319230555, 319186866, 14254499, 116669011, 11690, 2896769144, 1441812054, 157269140, 1443928670, 95270700, 14377870, 87173790, 371995678, 233394099, 188177159, 31692354, 221959538, 297026429, 331922967, 486853527, 284630152, 17591611, 44280373, 2358639540, 258440536, 483575383, 1561407690, 1924555388, 909820129, 3116191, 16896485, 16634310, 1691859852, 1345391906, 2296881541, 361856301, 899567136, 1073155298, 415298013, 8020002, 2339397540, 2256624222, 29658846, 27626832, 185172015, 538316273, 18195019, 420537199, 9420322]</t>
-  </si>
-  <si>
-    <t>[1394399438, 101803450, 104263696, 18136692, 17800533, 15020764, 26839770, 18719688, 376871745, 31776747, 23631263, 24288307, 141989041, 2918018660, 73676791, 17688357, 260449336, 147600491, 14788764, 14353392, 22940219, 500042487, 23504870, 32625314, 18948541, 16303106, 473530811, 222436278, 17878322, 262049694, 322788120, 1129710217, 924255866, 2594240030, 17757746, 46556110, 16671007, 238982154, 20916688, 2724128955, 2538327002, 365573885, 21447363, 99824554, 2988857444, 27260086, 2566937280, 33995409, 466141469, 17565427, 168935122, 22495620, 2854161322, 79293791, 126107178, 26565946, 344921211, 2864763791, 67736078, 19426551, 2315877265, 209651787, 62075866, 14920785, 2914437252, 42799444, 284071796, 25365536, 2557521, 1286664319, 16824344, 90420314, 17919972, 474371834, 19923144, 87920985, 76543118, 16125042, 216950144, 256881576, 319228345, 1137785557, 17775276, 179222959, 227968650, 126821258, 32065550, 2661757603, 1371101112, 26257166, 23234807, 69943264, 14937501, 57558113, 29424776, 23083404, 2180648935, 212890904, 23151437, 632332793]</t>
-  </si>
-  <si>
-    <t>[458480423, 128126054, 55338739, 17393196, 16145875, 19834403, 48485632, 43464013, 16630098, 1394399438, 17338082, 66780587, 42614508, 15180856, 532923, 3065470483, 6320592, 15390783, 35870660, 7103272, 753623149929869312, 15467700, 138203134, 448641255, 942878337806032901, 62513246, 30261067, 17006036, 402957663, 22162854, 50310311, 175282603, 3333052551, 68746721, 216939636, 459691607, 3404411728, 66379182, 16295946, 1399071, 941782988819521536, 386884870, 920905949795246080, 1004812148181209088, 961095699839545345, 476199550, 856958709179838465, 978360324104466432, 963594835012849665, 20343160, 2804133324, 993571736217096192, 584060660, 2533810195, 2783140472, 896464226650169345, 3099073484, 32011659, 37734597, 247560825, 28211096, 18765257, 1018579190113685504, 725274207144157184, 11348282, 205302299, 146385359, 706933895502163968, 118735501, 2935835683, 43688922, 815459424, 120967386, 900923925839794176, 396536542, 254107028, 403912189, 66094129, 57172253, 478945877, 2443074973, 44491851, 166315104, 2208027565, 22756947, 14681449, 16014840, 345673106, 2362618909, 2894299203, 17189394, 5413282, 42039840, 29613873, 2141321, 8942382, 610404054, 2715674091, 2481210138, 2277063271]</t>
-  </si>
-  <si>
-    <t>[8157452, 967943986471145473, 950917520021704704, 386263630, 1960295342, 3115971038, 266807228, 13877022, 2845148412, 50610938, 14662290, 41868331, 700950868493991936, 820889684821868546, 286703523, 634314890, 2482854690, 871309752613130241, 103392633, 4400681, 884964818, 703931480, 2151418952, 18919970, 478878156, 42737287, 15138829, 20522624, 331265223, 103508880, 16891805, 2846363083, 743856512, 744205665615355905, 40351046, 3597650116, 13381242, 14870868, 332696199, 18486446, 708978866145128448, 1709372834, 2533033880, 1867302133, 1002765768113774594, 807847565328674816, 846242581, 1386787135, 534621802, 746033733174689792, 1024684092, 850905193223000066, 391826877, 2288864124, 891321540599480320, 974689133229694982, 2886468044, 788856795586519040, 1869670662, 3892851855, 882462369267548162, 3003810194, 4920652715, 2242205971, 77805209, 564464047, 754956424493539328, 1842182666, 207527024, 40351345, 509096367, 91332941, 866426699193491459, 501200428, 16438898, 299558731, 911520972, 701110529985613824, 830386142797320192, 887842865329713152, 765245597188227073, 2421060835, 818021296789397504, 303855298, 3293118027, 2485492013, 248293840, 1141995734, 2897385435, 781435925595353088, 874581280385585152, 2525262385, 16175706, 828909711609176064, 21428389, 351912183, 44150150, 387181116, 257132048, 1059075626]</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -102,26 +72,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -409,20 +396,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -430,127 +416,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>2918018660</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="n">
-        <v>485212274</v>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>44</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="n">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>28747090</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="n">
-        <v>54585605</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="n">
-        <v>2908532184</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="n">
-        <v>14997071</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="n">
-        <v>21569394</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="n">
-        <v>35405464</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="n">
-        <v>589640794</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="n">
-        <v>15359674</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="n">
-        <v>24007823</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="n">
-        <v>16920865</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="n">
-        <v>2723796299</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="n">
-        <v>598779793</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="n">
-        <v>141989041</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>